--- a/svea/logs/excel_logs/excel_pole.xlsx
+++ b/svea/logs/excel_logs/excel_pole.xlsx
@@ -1205,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>17</v>
